--- a/bankole_sex_specific_splicing_2024/documentation/create_fiveSpecies_flag_file_03ksb.xlsx
+++ b/bankole_sex_specific_splicing_2024/documentation/create_fiveSpecies_flag_file_03ksb.xlsx
@@ -144,9 +144,33 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Outputs the flag file. columns examples:
-geneID
-dmel6_jxnHash
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Outputs the flag file. columns examples:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dmel6_jxnHash
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">geneID
 flag_dmel650_2_dmel6_ujc
 flag_dsim202_2_dsim2_ujc
 flag_dsan11_2_dsan1_ujc
@@ -155,6 +179,7 @@
 flag_dser11_2_dser1_ujc
 flag_all
 flag_melBranchOnly</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">script will quit if there are any right_onlys (annotation_ujc_2_genome index has a UJC that that the fiveSpecies geneKey does not, which makes no sense)</t>
@@ -280,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -389,6 +414,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="10"/>
       <color rgb="FF0563C1"/>
@@ -469,7 +499,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -566,11 +596,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -666,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B20" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,7 +877,7 @@
       <c r="U11" s="7"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="10" customFormat="true" ht="871.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="10" customFormat="true" ht="826.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>20</v>
